--- a/sict/day7/최종Test Folder/output/2023년5월24일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월24일 코로나 확진자 정리본.xlsx
@@ -49,7 +49,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>27933</x:t>
+    <x:t>27,933</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -65,7 +65,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>255609</x:t>
+    <x:t>255,609</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -81,7 +81,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>100191</x:t>
+    <x:t>100,191</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -97,7 +97,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>43100</x:t>
+    <x:t>43,100</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -113,7 +113,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>38179</x:t>
+    <x:t>38,179</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -129,7 +129,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>13935318</x:t>
+    <x:t>13,935,318</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -275,7 +275,7 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
-    <x:t>0.012</x:t>
+    <x:t>1.2%</x:t>
   </x:si>
   <x:si>
     <x:r>
